--- a/Code/Results/Cases/Case_5_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_134/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008379238483617</v>
+        <v>1.034145735084474</v>
       </c>
       <c r="D2">
-        <v>1.026100634348614</v>
+        <v>1.041121413211604</v>
       </c>
       <c r="E2">
-        <v>1.013671646464509</v>
+        <v>1.033367690110372</v>
       </c>
       <c r="F2">
-        <v>1.026873492903467</v>
+        <v>1.048459130576463</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045182892348191</v>
+        <v>1.0375667191377</v>
       </c>
       <c r="J2">
-        <v>1.030312184118197</v>
+        <v>1.039266581152779</v>
       </c>
       <c r="K2">
-        <v>1.037207938127833</v>
+        <v>1.043901824984075</v>
       </c>
       <c r="L2">
-        <v>1.024943743529223</v>
+        <v>1.036170242187793</v>
       </c>
       <c r="M2">
-        <v>1.037970714530513</v>
+        <v>1.051218917063068</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.012305502769661</v>
+        <v>1.034984813698986</v>
       </c>
       <c r="D3">
-        <v>1.029021527047071</v>
+        <v>1.04177249187912</v>
       </c>
       <c r="E3">
-        <v>1.016772630758508</v>
+        <v>1.034078103663788</v>
       </c>
       <c r="F3">
-        <v>1.030493665131912</v>
+        <v>1.049292327645793</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046245482880936</v>
+        <v>1.037749268715071</v>
       </c>
       <c r="J3">
-        <v>1.03246623737152</v>
+        <v>1.039749228151799</v>
       </c>
       <c r="K3">
-        <v>1.039296064595929</v>
+        <v>1.044363885799193</v>
       </c>
       <c r="L3">
-        <v>1.027195307997182</v>
+        <v>1.036689884545045</v>
       </c>
       <c r="M3">
-        <v>1.040750692287641</v>
+        <v>1.051864108976005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014800119510196</v>
+        <v>1.035528430544895</v>
       </c>
       <c r="D4">
-        <v>1.030880624259469</v>
+        <v>1.042194381532058</v>
       </c>
       <c r="E4">
-        <v>1.018748646987167</v>
+        <v>1.034538749150987</v>
       </c>
       <c r="F4">
-        <v>1.032799505782043</v>
+        <v>1.049832536580012</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046912645809415</v>
+        <v>1.037866529989449</v>
       </c>
       <c r="J4">
-        <v>1.033832666814791</v>
+        <v>1.040061547934071</v>
       </c>
       <c r="K4">
-        <v>1.040620103108109</v>
+        <v>1.044662781548</v>
       </c>
       <c r="L4">
-        <v>1.028625938300174</v>
+        <v>1.037026414827872</v>
       </c>
       <c r="M4">
-        <v>1.04251755216851</v>
+        <v>1.052282016260929</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015838195902881</v>
+        <v>1.035757127441987</v>
       </c>
       <c r="D5">
-        <v>1.031654985336782</v>
+        <v>1.042371885355157</v>
       </c>
       <c r="E5">
-        <v>1.01957226557172</v>
+        <v>1.034732632596459</v>
       </c>
       <c r="F5">
-        <v>1.033760364930701</v>
+        <v>1.050059895729283</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04718832644104</v>
+        <v>1.037915619906845</v>
       </c>
       <c r="J5">
-        <v>1.034400722585681</v>
+        <v>1.04019284943908</v>
       </c>
       <c r="K5">
-        <v>1.041170392805794</v>
+        <v>1.044788414809556</v>
       </c>
       <c r="L5">
-        <v>1.029221247017681</v>
+        <v>1.037167959449952</v>
       </c>
       <c r="M5">
-        <v>1.043252889449204</v>
+        <v>1.052457804568791</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.016011877904995</v>
+        <v>1.035795536013313</v>
       </c>
       <c r="D6">
-        <v>1.031784587165818</v>
+        <v>1.042401697268221</v>
       </c>
       <c r="E6">
-        <v>1.01971014443517</v>
+        <v>1.034765199801361</v>
       </c>
       <c r="F6">
-        <v>1.033921205337641</v>
+        <v>1.05009808524513</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04723433581925</v>
+        <v>1.03792385017694</v>
       </c>
       <c r="J6">
-        <v>1.034495731547599</v>
+        <v>1.04021489563481</v>
       </c>
       <c r="K6">
-        <v>1.041262421738338</v>
+        <v>1.044809507828392</v>
       </c>
       <c r="L6">
-        <v>1.029320847244895</v>
+        <v>1.037191729320088</v>
       </c>
       <c r="M6">
-        <v>1.043375924669127</v>
+        <v>1.052487326020141</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014814031789008</v>
+        <v>1.035531485775948</v>
       </c>
       <c r="D7">
-        <v>1.030890999357269</v>
+        <v>1.042196752793438</v>
       </c>
       <c r="E7">
-        <v>1.018759679839126</v>
+        <v>1.034541338937182</v>
       </c>
       <c r="F7">
-        <v>1.032812377956315</v>
+        <v>1.049835573563365</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046916348190115</v>
+        <v>1.037867186744496</v>
       </c>
       <c r="J7">
-        <v>1.033840282102056</v>
+        <v>1.040063302383921</v>
       </c>
       <c r="K7">
-        <v>1.04062748079955</v>
+        <v>1.044664460355905</v>
       </c>
       <c r="L7">
-        <v>1.028633916711509</v>
+        <v>1.037028305891389</v>
       </c>
       <c r="M7">
-        <v>1.042527406792785</v>
+        <v>1.05228436476171</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009715857551021</v>
+        <v>1.034429164474249</v>
       </c>
       <c r="D8">
-        <v>1.027094286712632</v>
+        <v>1.041341323347627</v>
       </c>
       <c r="E8">
-        <v>1.014726088665677</v>
+        <v>1.033607577729449</v>
       </c>
       <c r="F8">
-        <v>1.028104695251153</v>
+        <v>1.048740489711904</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045546280157111</v>
+        <v>1.037628590365844</v>
       </c>
       <c r="J8">
-        <v>1.031045928959528</v>
+        <v>1.039429690099738</v>
       </c>
       <c r="K8">
-        <v>1.037919341568123</v>
+        <v>1.044057998126678</v>
       </c>
       <c r="L8">
-        <v>1.025710213049336</v>
+        <v>1.036345797502649</v>
       </c>
       <c r="M8">
-        <v>1.038916966140652</v>
+        <v>1.051436873702178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.000364490833339</v>
+        <v>1.032491991527006</v>
       </c>
       <c r="D9">
-        <v>1.020157921015146</v>
+        <v>1.039838608669183</v>
       </c>
       <c r="E9">
-        <v>1.00737472543812</v>
+        <v>1.031969608269257</v>
       </c>
       <c r="F9">
-        <v>1.019516298211371</v>
+        <v>1.046819130519203</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042971521001763</v>
+        <v>1.037201594271539</v>
       </c>
       <c r="J9">
-        <v>1.025904384551983</v>
+        <v>1.038313355872042</v>
       </c>
       <c r="K9">
-        <v>1.0329322019932</v>
+        <v>1.04298871504944</v>
       </c>
       <c r="L9">
-        <v>1.020349275368589</v>
+        <v>1.03514539000193</v>
       </c>
       <c r="M9">
-        <v>1.032300478353253</v>
+        <v>1.049946814174888</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.993859602270682</v>
+        <v>1.031204177725443</v>
       </c>
       <c r="D10">
-        <v>1.015354595291423</v>
+        <v>1.0388400404941</v>
       </c>
       <c r="E10">
-        <v>1.002295545621304</v>
+        <v>1.030882738973657</v>
       </c>
       <c r="F10">
-        <v>1.013575989586296</v>
+        <v>1.045543935317518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041140821800354</v>
+        <v>1.036912563221057</v>
       </c>
       <c r="J10">
-        <v>1.022318979743197</v>
+        <v>1.037569325933638</v>
       </c>
       <c r="K10">
-        <v>1.029452043625807</v>
+        <v>1.042275522532921</v>
       </c>
       <c r="L10">
-        <v>1.016623476608239</v>
+        <v>1.034346721107687</v>
       </c>
       <c r="M10">
-        <v>1.027704376627773</v>
+        <v>1.048955777548082</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9909731380436851</v>
+        <v>1.030647423240081</v>
       </c>
       <c r="D11">
-        <v>1.013228989698154</v>
+        <v>1.038408441090866</v>
       </c>
       <c r="E11">
-        <v>1.000050493246031</v>
+        <v>1.030413347974076</v>
       </c>
       <c r="F11">
-        <v>1.010948616754132</v>
+        <v>1.04499314124028</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04031952864591</v>
+        <v>1.036786382818681</v>
       </c>
       <c r="J11">
-        <v>1.020726327178733</v>
+        <v>1.037247214872848</v>
       </c>
       <c r="K11">
-        <v>1.027905665666903</v>
+        <v>1.041966639057712</v>
       </c>
       <c r="L11">
-        <v>1.014971457401181</v>
+        <v>1.034001286491819</v>
       </c>
       <c r="M11">
-        <v>1.025666970274128</v>
+        <v>1.048527222797917</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9898899819157311</v>
+        <v>1.030440753337595</v>
       </c>
       <c r="D12">
-        <v>1.01243228110903</v>
+        <v>1.038248245973003</v>
       </c>
       <c r="E12">
-        <v>0.9992093995642041</v>
+        <v>1.030239182033229</v>
       </c>
       <c r="F12">
-        <v>1.009964020635709</v>
+        <v>1.044788760229751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04001003276621</v>
+        <v>1.036739360061041</v>
       </c>
       <c r="J12">
-        <v>1.020128465746981</v>
+        <v>1.037127578636641</v>
       </c>
       <c r="K12">
-        <v>1.02732511226416</v>
+        <v>1.041851897351541</v>
       </c>
       <c r="L12">
-        <v>1.01435176192102</v>
+        <v>1.033873037361508</v>
       </c>
       <c r="M12">
-        <v>1.024902783453621</v>
+        <v>1.048368125905095</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9901228286012684</v>
+        <v>1.030485078664856</v>
       </c>
       <c r="D13">
-        <v>1.012603506878913</v>
+        <v>1.038282602904351</v>
       </c>
       <c r="E13">
-        <v>0.9993901471542335</v>
+        <v>1.030276532736336</v>
       </c>
       <c r="F13">
-        <v>1.010175618692571</v>
+        <v>1.044832591185682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040076623467048</v>
+        <v>1.036749453547648</v>
       </c>
       <c r="J13">
-        <v>1.020256997339277</v>
+        <v>1.037153240534779</v>
       </c>
       <c r="K13">
-        <v>1.027449925577673</v>
+        <v>1.041876510205935</v>
       </c>
       <c r="L13">
-        <v>1.014484967097542</v>
+        <v>1.033900544467078</v>
       </c>
       <c r="M13">
-        <v>1.025067044185849</v>
+        <v>1.048402248745483</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9908838313512978</v>
+        <v>1.030630337108294</v>
       </c>
       <c r="D14">
-        <v>1.013163281413365</v>
+        <v>1.038395196851407</v>
       </c>
       <c r="E14">
-        <v>0.9999811165302203</v>
+        <v>1.030398947541945</v>
       </c>
       <c r="F14">
-        <v>1.010867408943783</v>
+        <v>1.044976242778484</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040294036825619</v>
+        <v>1.036782499034933</v>
       </c>
       <c r="J14">
-        <v>1.020677037344464</v>
+        <v>1.037237325489486</v>
       </c>
       <c r="K14">
-        <v>1.027857803995532</v>
+        <v>1.041957154640755</v>
       </c>
       <c r="L14">
-        <v>1.014920358303071</v>
+        <v>1.033990684132857</v>
       </c>
       <c r="M14">
-        <v>1.025603955189242</v>
+        <v>1.048514070005958</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9913512376582964</v>
+        <v>1.030719853370326</v>
       </c>
       <c r="D15">
-        <v>1.013507218636587</v>
+        <v>1.038464585670249</v>
       </c>
       <c r="E15">
-        <v>1.000344271109473</v>
+        <v>1.030474396150183</v>
       </c>
       <c r="F15">
-        <v>1.011292482703989</v>
+        <v>1.045064778946046</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04042740101688</v>
+        <v>1.036802839099928</v>
       </c>
       <c r="J15">
-        <v>1.020934998136589</v>
+        <v>1.037289134390134</v>
       </c>
       <c r="K15">
-        <v>1.028108287915061</v>
+        <v>1.042006841235321</v>
       </c>
       <c r="L15">
-        <v>1.015187806384403</v>
+        <v>1.034046230237576</v>
       </c>
       <c r="M15">
-        <v>1.025933773422707</v>
+        <v>1.048582978410002</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9940496540592244</v>
+        <v>1.031241146316337</v>
       </c>
       <c r="D16">
-        <v>1.015494676529202</v>
+        <v>1.038868701068425</v>
       </c>
       <c r="E16">
-        <v>1.002443552697299</v>
+        <v>1.030913916997109</v>
       </c>
       <c r="F16">
-        <v>1.013749164905911</v>
+        <v>1.045580518825096</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041194714571728</v>
+        <v>1.036920915799938</v>
       </c>
       <c r="J16">
-        <v>1.022423812160859</v>
+        <v>1.037590704735486</v>
       </c>
       <c r="K16">
-        <v>1.029553820925579</v>
+        <v>1.042296020827677</v>
       </c>
       <c r="L16">
-        <v>1.01673227928765</v>
+        <v>1.034369654894663</v>
       </c>
       <c r="M16">
-        <v>1.027838571343801</v>
+        <v>1.048984231482543</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9957232617889638</v>
+        <v>1.031568375699315</v>
       </c>
       <c r="D17">
-        <v>1.016728910266865</v>
+        <v>1.039122404044153</v>
       </c>
       <c r="E17">
-        <v>1.003747918583678</v>
+        <v>1.031189947611778</v>
       </c>
       <c r="F17">
-        <v>1.015275139936274</v>
+        <v>1.045904398077776</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041668282641324</v>
+        <v>1.036994707460124</v>
       </c>
       <c r="J17">
-        <v>1.023346786633097</v>
+        <v>1.037779888521674</v>
       </c>
       <c r="K17">
-        <v>1.030449844010532</v>
+        <v>1.042477398716986</v>
       </c>
       <c r="L17">
-        <v>1.01769055079281</v>
+        <v>1.034572637208086</v>
       </c>
       <c r="M17">
-        <v>1.029020538564046</v>
+        <v>1.049236080905341</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9966927495530619</v>
+        <v>1.031759327604229</v>
       </c>
       <c r="D18">
-        <v>1.01744442589589</v>
+        <v>1.039270460527684</v>
       </c>
       <c r="E18">
-        <v>1.004504342305566</v>
+        <v>1.031351070205123</v>
       </c>
       <c r="F18">
-        <v>1.016159918225659</v>
+        <v>1.046093443787906</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041941758115249</v>
+        <v>1.037037649647066</v>
       </c>
       <c r="J18">
-        <v>1.023881285713867</v>
+        <v>1.037890241809559</v>
       </c>
       <c r="K18">
-        <v>1.030968689555948</v>
+        <v>1.042583186873293</v>
       </c>
       <c r="L18">
-        <v>1.018245775272185</v>
+        <v>1.034691071304335</v>
       </c>
       <c r="M18">
-        <v>1.029705421063938</v>
+        <v>1.049383035358768</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9970221984282807</v>
+        <v>1.031824451557763</v>
       </c>
       <c r="D19">
-        <v>1.017687661904198</v>
+        <v>1.039320956768278</v>
       </c>
       <c r="E19">
-        <v>1.004761527627012</v>
+        <v>1.031406028905588</v>
       </c>
       <c r="F19">
-        <v>1.016460717546358</v>
+        <v>1.046157925889026</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042034543946084</v>
+        <v>1.037052274968543</v>
       </c>
       <c r="J19">
-        <v>1.024062889273505</v>
+        <v>1.037927870336364</v>
       </c>
       <c r="K19">
-        <v>1.031144966574608</v>
+        <v>1.042619256757663</v>
       </c>
       <c r="L19">
-        <v>1.018434468840749</v>
+        <v>1.03473146066352</v>
       </c>
       <c r="M19">
-        <v>1.029938187315964</v>
+        <v>1.049433152298163</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9955443960316188</v>
+        <v>1.031533258326647</v>
       </c>
       <c r="D20">
-        <v>1.016596945022245</v>
+        <v>1.039095176259081</v>
       </c>
       <c r="E20">
-        <v>1.003608428820824</v>
+        <v>1.031160319857517</v>
       </c>
       <c r="F20">
-        <v>1.015111967862489</v>
+        <v>1.045869635187515</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041617758545236</v>
+        <v>1.036986800573049</v>
       </c>
       <c r="J20">
-        <v>1.023248160827475</v>
+        <v>1.037759590304527</v>
       </c>
       <c r="K20">
-        <v>1.030354102830384</v>
+        <v>1.042457939248397</v>
       </c>
       <c r="L20">
-        <v>1.017588123731958</v>
+        <v>1.034550855191512</v>
       </c>
       <c r="M20">
-        <v>1.028894196288151</v>
+        <v>1.049209054150242</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9906600427464684</v>
+        <v>1.030587558418288</v>
       </c>
       <c r="D21">
-        <v>1.012998641962763</v>
+        <v>1.038362037409662</v>
       </c>
       <c r="E21">
-        <v>0.9998072915952561</v>
+        <v>1.030362894261655</v>
       </c>
       <c r="F21">
-        <v>1.010663936552058</v>
+        <v>1.044933935194752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040230137460314</v>
+        <v>1.036772772200735</v>
       </c>
       <c r="J21">
-        <v>1.020553521432564</v>
+        <v>1.037212564275207</v>
       </c>
       <c r="K21">
-        <v>1.027737865949119</v>
+        <v>1.041933407092136</v>
       </c>
       <c r="L21">
-        <v>1.014792315816578</v>
+        <v>1.033964138561787</v>
       </c>
       <c r="M21">
-        <v>1.025446055166114</v>
+        <v>1.048481139004956</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9875251698218191</v>
+        <v>1.029993732594531</v>
       </c>
       <c r="D22">
-        <v>1.010694639988558</v>
+        <v>1.037901779793103</v>
       </c>
       <c r="E22">
-        <v>0.9973756507560237</v>
+        <v>1.029862602705248</v>
       </c>
       <c r="F22">
-        <v>1.007816898856919</v>
+        <v>1.044346830408847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039331975251679</v>
+        <v>1.036637314942869</v>
       </c>
       <c r="J22">
-        <v>1.018822831162248</v>
+        <v>1.036868686698398</v>
       </c>
       <c r="K22">
-        <v>1.026057169984092</v>
+        <v>1.041603563640607</v>
       </c>
       <c r="L22">
-        <v>1.012999276405557</v>
+        <v>1.033595598234843</v>
       </c>
       <c r="M22">
-        <v>1.023235075842825</v>
+        <v>1.048023976499875</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9891932583878175</v>
+        <v>1.030308457041041</v>
       </c>
       <c r="D23">
-        <v>1.011920080957315</v>
+        <v>1.038145704486191</v>
       </c>
       <c r="E23">
-        <v>0.9986687718331555</v>
+        <v>1.030127713572746</v>
       </c>
       <c r="F23">
-        <v>1.009331076666947</v>
+        <v>1.044657950683713</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039810592506683</v>
+        <v>1.036709207437779</v>
       </c>
       <c r="J23">
-        <v>1.019743845556144</v>
+        <v>1.037050976637711</v>
       </c>
       <c r="K23">
-        <v>1.026951610188728</v>
+        <v>1.041778424115215</v>
       </c>
       <c r="L23">
-        <v>1.01395322267009</v>
+        <v>1.033790934620412</v>
       </c>
       <c r="M23">
-        <v>1.024411338884699</v>
+        <v>1.048266278406111</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9956252384345138</v>
+        <v>1.031549126094731</v>
       </c>
       <c r="D24">
-        <v>1.016656587987859</v>
+        <v>1.039107479089089</v>
       </c>
       <c r="E24">
-        <v>1.003671471787425</v>
+        <v>1.031173706998134</v>
       </c>
       <c r="F24">
-        <v>1.015185714641492</v>
+        <v>1.045885342632375</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041640596694216</v>
+        <v>1.036990373661695</v>
       </c>
       <c r="J24">
-        <v>1.023292737483219</v>
+        <v>1.037768762178036</v>
       </c>
       <c r="K24">
-        <v>1.030397375842795</v>
+        <v>1.042466732164879</v>
       </c>
       <c r="L24">
-        <v>1.01763441758752</v>
+        <v>1.03456069743014</v>
       </c>
       <c r="M24">
-        <v>1.028951298929566</v>
+        <v>1.049221266207961</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002827951295608</v>
+        <v>1.032992163812299</v>
       </c>
       <c r="D25">
-        <v>1.021981659095303</v>
+        <v>1.040226532950653</v>
       </c>
       <c r="E25">
-        <v>1.009305545536505</v>
+        <v>1.032392169956018</v>
       </c>
       <c r="F25">
-        <v>1.021773086535698</v>
+        <v>1.047314849980037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043656804716633</v>
+        <v>1.037312755847516</v>
       </c>
       <c r="J25">
-        <v>1.02726051696976</v>
+        <v>1.03860192670994</v>
       </c>
       <c r="K25">
-        <v>1.034248059190819</v>
+        <v>1.043265215573219</v>
       </c>
       <c r="L25">
-        <v>1.021761102186626</v>
+        <v>1.035455447736154</v>
       </c>
       <c r="M25">
-        <v>1.034042550787335</v>
+        <v>1.050331625711857</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_134/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_134/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034145735084474</v>
+        <v>1.008379238483617</v>
       </c>
       <c r="D2">
-        <v>1.041121413211604</v>
+        <v>1.026100634348614</v>
       </c>
       <c r="E2">
-        <v>1.033367690110372</v>
+        <v>1.013671646464509</v>
       </c>
       <c r="F2">
-        <v>1.048459130576463</v>
+        <v>1.026873492903467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0375667191377</v>
+        <v>1.045182892348191</v>
       </c>
       <c r="J2">
-        <v>1.039266581152779</v>
+        <v>1.030312184118197</v>
       </c>
       <c r="K2">
-        <v>1.043901824984075</v>
+        <v>1.037207938127833</v>
       </c>
       <c r="L2">
-        <v>1.036170242187793</v>
+        <v>1.024943743529223</v>
       </c>
       <c r="M2">
-        <v>1.051218917063068</v>
+        <v>1.037970714530513</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034984813698986</v>
+        <v>1.012305502769661</v>
       </c>
       <c r="D3">
-        <v>1.04177249187912</v>
+        <v>1.029021527047072</v>
       </c>
       <c r="E3">
-        <v>1.034078103663788</v>
+        <v>1.016772630758508</v>
       </c>
       <c r="F3">
-        <v>1.049292327645793</v>
+        <v>1.030493665131913</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037749268715071</v>
+        <v>1.046245482880936</v>
       </c>
       <c r="J3">
-        <v>1.039749228151799</v>
+        <v>1.03246623737152</v>
       </c>
       <c r="K3">
-        <v>1.044363885799193</v>
+        <v>1.039296064595929</v>
       </c>
       <c r="L3">
-        <v>1.036689884545045</v>
+        <v>1.027195307997183</v>
       </c>
       <c r="M3">
-        <v>1.051864108976005</v>
+        <v>1.040750692287641</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035528430544895</v>
+        <v>1.014800119510196</v>
       </c>
       <c r="D4">
-        <v>1.042194381532058</v>
+        <v>1.030880624259469</v>
       </c>
       <c r="E4">
-        <v>1.034538749150987</v>
+        <v>1.018748646987166</v>
       </c>
       <c r="F4">
-        <v>1.049832536580012</v>
+        <v>1.032799505782043</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037866529989449</v>
+        <v>1.046912645809415</v>
       </c>
       <c r="J4">
-        <v>1.040061547934071</v>
+        <v>1.03383266681479</v>
       </c>
       <c r="K4">
-        <v>1.044662781548</v>
+        <v>1.040620103108109</v>
       </c>
       <c r="L4">
-        <v>1.037026414827872</v>
+        <v>1.028625938300173</v>
       </c>
       <c r="M4">
-        <v>1.052282016260929</v>
+        <v>1.04251755216851</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035757127441987</v>
+        <v>1.015838195902881</v>
       </c>
       <c r="D5">
-        <v>1.042371885355157</v>
+        <v>1.031654985336782</v>
       </c>
       <c r="E5">
-        <v>1.034732632596459</v>
+        <v>1.01957226557172</v>
       </c>
       <c r="F5">
-        <v>1.050059895729283</v>
+        <v>1.033760364930701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037915619906845</v>
+        <v>1.04718832644104</v>
       </c>
       <c r="J5">
-        <v>1.04019284943908</v>
+        <v>1.034400722585681</v>
       </c>
       <c r="K5">
-        <v>1.044788414809556</v>
+        <v>1.041170392805793</v>
       </c>
       <c r="L5">
-        <v>1.037167959449952</v>
+        <v>1.029221247017681</v>
       </c>
       <c r="M5">
-        <v>1.052457804568791</v>
+        <v>1.043252889449204</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035795536013313</v>
+        <v>1.016011877904995</v>
       </c>
       <c r="D6">
-        <v>1.042401697268221</v>
+        <v>1.031784587165818</v>
       </c>
       <c r="E6">
-        <v>1.034765199801361</v>
+        <v>1.01971014443517</v>
       </c>
       <c r="F6">
-        <v>1.05009808524513</v>
+        <v>1.033921205337641</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03792385017694</v>
+        <v>1.04723433581925</v>
       </c>
       <c r="J6">
-        <v>1.04021489563481</v>
+        <v>1.034495731547599</v>
       </c>
       <c r="K6">
-        <v>1.044809507828392</v>
+        <v>1.041262421738338</v>
       </c>
       <c r="L6">
-        <v>1.037191729320088</v>
+        <v>1.029320847244894</v>
       </c>
       <c r="M6">
-        <v>1.052487326020141</v>
+        <v>1.043375924669127</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035531485775948</v>
+        <v>1.014814031789008</v>
       </c>
       <c r="D7">
-        <v>1.042196752793438</v>
+        <v>1.030890999357269</v>
       </c>
       <c r="E7">
-        <v>1.034541338937182</v>
+        <v>1.018759679839126</v>
       </c>
       <c r="F7">
-        <v>1.049835573563365</v>
+        <v>1.032812377956315</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037867186744496</v>
+        <v>1.046916348190115</v>
       </c>
       <c r="J7">
-        <v>1.040063302383921</v>
+        <v>1.033840282102057</v>
       </c>
       <c r="K7">
-        <v>1.044664460355905</v>
+        <v>1.04062748079955</v>
       </c>
       <c r="L7">
-        <v>1.037028305891389</v>
+        <v>1.028633916711509</v>
       </c>
       <c r="M7">
-        <v>1.05228436476171</v>
+        <v>1.042527406792785</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034429164474249</v>
+        <v>1.009715857551021</v>
       </c>
       <c r="D8">
-        <v>1.041341323347627</v>
+        <v>1.027094286712632</v>
       </c>
       <c r="E8">
-        <v>1.033607577729449</v>
+        <v>1.014726088665676</v>
       </c>
       <c r="F8">
-        <v>1.048740489711904</v>
+        <v>1.028104695251153</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037628590365844</v>
+        <v>1.045546280157111</v>
       </c>
       <c r="J8">
-        <v>1.039429690099738</v>
+        <v>1.031045928959528</v>
       </c>
       <c r="K8">
-        <v>1.044057998126678</v>
+        <v>1.037919341568123</v>
       </c>
       <c r="L8">
-        <v>1.036345797502649</v>
+        <v>1.025710213049335</v>
       </c>
       <c r="M8">
-        <v>1.051436873702178</v>
+        <v>1.038916966140651</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032491991527006</v>
+        <v>1.000364490833338</v>
       </c>
       <c r="D9">
-        <v>1.039838608669183</v>
+        <v>1.020157921015145</v>
       </c>
       <c r="E9">
-        <v>1.031969608269257</v>
+        <v>1.00737472543812</v>
       </c>
       <c r="F9">
-        <v>1.046819130519203</v>
+        <v>1.01951629821137</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037201594271539</v>
+        <v>1.042971521001762</v>
       </c>
       <c r="J9">
-        <v>1.038313355872042</v>
+        <v>1.025904384551982</v>
       </c>
       <c r="K9">
-        <v>1.04298871504944</v>
+        <v>1.0329322019932</v>
       </c>
       <c r="L9">
-        <v>1.03514539000193</v>
+        <v>1.020349275368589</v>
       </c>
       <c r="M9">
-        <v>1.049946814174888</v>
+        <v>1.032300478353253</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031204177725443</v>
+        <v>0.9938596022706819</v>
       </c>
       <c r="D10">
-        <v>1.0388400404941</v>
+        <v>1.015354595291423</v>
       </c>
       <c r="E10">
-        <v>1.030882738973657</v>
+        <v>1.002295545621304</v>
       </c>
       <c r="F10">
-        <v>1.045543935317518</v>
+        <v>1.013575989586295</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036912563221057</v>
+        <v>1.041140821800354</v>
       </c>
       <c r="J10">
-        <v>1.037569325933638</v>
+        <v>1.022318979743197</v>
       </c>
       <c r="K10">
-        <v>1.042275522532921</v>
+        <v>1.029452043625807</v>
       </c>
       <c r="L10">
-        <v>1.034346721107687</v>
+        <v>1.016623476608239</v>
       </c>
       <c r="M10">
-        <v>1.048955777548082</v>
+        <v>1.027704376627773</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030647423240081</v>
+        <v>0.9909731380436848</v>
       </c>
       <c r="D11">
-        <v>1.038408441090866</v>
+        <v>1.013228989698154</v>
       </c>
       <c r="E11">
-        <v>1.030413347974076</v>
+        <v>1.00005049324603</v>
       </c>
       <c r="F11">
-        <v>1.04499314124028</v>
+        <v>1.010948616754132</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036786382818681</v>
+        <v>1.04031952864591</v>
       </c>
       <c r="J11">
-        <v>1.037247214872848</v>
+        <v>1.020726327178733</v>
       </c>
       <c r="K11">
-        <v>1.041966639057712</v>
+        <v>1.027905665666903</v>
       </c>
       <c r="L11">
-        <v>1.034001286491819</v>
+        <v>1.014971457401181</v>
       </c>
       <c r="M11">
-        <v>1.048527222797917</v>
+        <v>1.025666970274128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030440753337595</v>
+        <v>0.989889981915731</v>
       </c>
       <c r="D12">
-        <v>1.038248245973003</v>
+        <v>1.01243228110903</v>
       </c>
       <c r="E12">
-        <v>1.030239182033229</v>
+        <v>0.9992093995642036</v>
       </c>
       <c r="F12">
-        <v>1.044788760229751</v>
+        <v>1.009964020635709</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036739360061041</v>
+        <v>1.04001003276621</v>
       </c>
       <c r="J12">
-        <v>1.037127578636641</v>
+        <v>1.020128465746981</v>
       </c>
       <c r="K12">
-        <v>1.041851897351541</v>
+        <v>1.02732511226416</v>
       </c>
       <c r="L12">
-        <v>1.033873037361508</v>
+        <v>1.014351761921019</v>
       </c>
       <c r="M12">
-        <v>1.048368125905095</v>
+        <v>1.024902783453621</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030485078664856</v>
+        <v>0.9901228286012682</v>
       </c>
       <c r="D13">
-        <v>1.038282602904351</v>
+        <v>1.012603506878913</v>
       </c>
       <c r="E13">
-        <v>1.030276532736336</v>
+        <v>0.9993901471542334</v>
       </c>
       <c r="F13">
-        <v>1.044832591185682</v>
+        <v>1.010175618692571</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036749453547648</v>
+        <v>1.040076623467048</v>
       </c>
       <c r="J13">
-        <v>1.037153240534779</v>
+        <v>1.020256997339277</v>
       </c>
       <c r="K13">
-        <v>1.041876510205935</v>
+        <v>1.027449925577673</v>
       </c>
       <c r="L13">
-        <v>1.033900544467078</v>
+        <v>1.014484967097542</v>
       </c>
       <c r="M13">
-        <v>1.048402248745483</v>
+        <v>1.025067044185849</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030630337108294</v>
+        <v>0.9908838313512983</v>
       </c>
       <c r="D14">
-        <v>1.038395196851407</v>
+        <v>1.013163281413366</v>
       </c>
       <c r="E14">
-        <v>1.030398947541945</v>
+        <v>0.9999811165302207</v>
       </c>
       <c r="F14">
-        <v>1.044976242778484</v>
+        <v>1.010867408943784</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036782499034933</v>
+        <v>1.04029403682562</v>
       </c>
       <c r="J14">
-        <v>1.037237325489486</v>
+        <v>1.020677037344464</v>
       </c>
       <c r="K14">
-        <v>1.041957154640755</v>
+        <v>1.027857803995533</v>
       </c>
       <c r="L14">
-        <v>1.033990684132857</v>
+        <v>1.014920358303072</v>
       </c>
       <c r="M14">
-        <v>1.048514070005958</v>
+        <v>1.025603955189243</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030719853370326</v>
+        <v>0.9913512376582969</v>
       </c>
       <c r="D15">
-        <v>1.038464585670249</v>
+        <v>1.013507218636587</v>
       </c>
       <c r="E15">
-        <v>1.030474396150183</v>
+        <v>1.000344271109474</v>
       </c>
       <c r="F15">
-        <v>1.045064778946046</v>
+        <v>1.011292482703989</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036802839099928</v>
+        <v>1.04042740101688</v>
       </c>
       <c r="J15">
-        <v>1.037289134390134</v>
+        <v>1.020934998136589</v>
       </c>
       <c r="K15">
-        <v>1.042006841235321</v>
+        <v>1.028108287915061</v>
       </c>
       <c r="L15">
-        <v>1.034046230237576</v>
+        <v>1.015187806384403</v>
       </c>
       <c r="M15">
-        <v>1.048582978410002</v>
+        <v>1.025933773422707</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031241146316337</v>
+        <v>0.994049654059223</v>
       </c>
       <c r="D16">
-        <v>1.038868701068425</v>
+        <v>1.015494676529201</v>
       </c>
       <c r="E16">
-        <v>1.030913916997109</v>
+        <v>1.002443552697298</v>
       </c>
       <c r="F16">
-        <v>1.045580518825096</v>
+        <v>1.01374916490591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036920915799938</v>
+        <v>1.041194714571727</v>
       </c>
       <c r="J16">
-        <v>1.037590704735486</v>
+        <v>1.022423812160858</v>
       </c>
       <c r="K16">
-        <v>1.042296020827677</v>
+        <v>1.029553820925577</v>
       </c>
       <c r="L16">
-        <v>1.034369654894663</v>
+        <v>1.016732279287649</v>
       </c>
       <c r="M16">
-        <v>1.048984231482543</v>
+        <v>1.027838571343801</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031568375699315</v>
+        <v>0.9957232617889635</v>
       </c>
       <c r="D17">
-        <v>1.039122404044153</v>
+        <v>1.016728910266865</v>
       </c>
       <c r="E17">
-        <v>1.031189947611778</v>
+        <v>1.003747918583678</v>
       </c>
       <c r="F17">
-        <v>1.045904398077776</v>
+        <v>1.015275139936274</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036994707460124</v>
+        <v>1.041668282641324</v>
       </c>
       <c r="J17">
-        <v>1.037779888521674</v>
+        <v>1.023346786633097</v>
       </c>
       <c r="K17">
-        <v>1.042477398716986</v>
+        <v>1.030449844010532</v>
       </c>
       <c r="L17">
-        <v>1.034572637208086</v>
+        <v>1.01769055079281</v>
       </c>
       <c r="M17">
-        <v>1.049236080905341</v>
+        <v>1.029020538564046</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.031759327604229</v>
+        <v>0.9966927495530615</v>
       </c>
       <c r="D18">
-        <v>1.039270460527684</v>
+        <v>1.017444425895889</v>
       </c>
       <c r="E18">
-        <v>1.031351070205123</v>
+        <v>1.004504342305566</v>
       </c>
       <c r="F18">
-        <v>1.046093443787906</v>
+        <v>1.016159918225658</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037037649647066</v>
+        <v>1.041941758115248</v>
       </c>
       <c r="J18">
-        <v>1.037890241809559</v>
+        <v>1.023881285713867</v>
       </c>
       <c r="K18">
-        <v>1.042583186873293</v>
+        <v>1.030968689555947</v>
       </c>
       <c r="L18">
-        <v>1.034691071304335</v>
+        <v>1.018245775272185</v>
       </c>
       <c r="M18">
-        <v>1.049383035358768</v>
+        <v>1.029705421063938</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031824451557763</v>
+        <v>0.9970221984282802</v>
       </c>
       <c r="D19">
-        <v>1.039320956768278</v>
+        <v>1.017687661904198</v>
       </c>
       <c r="E19">
-        <v>1.031406028905588</v>
+        <v>1.004761527627012</v>
       </c>
       <c r="F19">
-        <v>1.046157925889026</v>
+        <v>1.016460717546357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037052274968543</v>
+        <v>1.042034543946084</v>
       </c>
       <c r="J19">
-        <v>1.037927870336364</v>
+        <v>1.024062889273504</v>
       </c>
       <c r="K19">
-        <v>1.042619256757663</v>
+        <v>1.031144966574607</v>
       </c>
       <c r="L19">
-        <v>1.03473146066352</v>
+        <v>1.018434468840749</v>
       </c>
       <c r="M19">
-        <v>1.049433152298163</v>
+        <v>1.029938187315963</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031533258326647</v>
+        <v>0.995544396031618</v>
       </c>
       <c r="D20">
-        <v>1.039095176259081</v>
+        <v>1.016596945022244</v>
       </c>
       <c r="E20">
-        <v>1.031160319857517</v>
+        <v>1.003608428820824</v>
       </c>
       <c r="F20">
-        <v>1.045869635187515</v>
+        <v>1.015111967862488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036986800573049</v>
+        <v>1.041617758545236</v>
       </c>
       <c r="J20">
-        <v>1.037759590304527</v>
+        <v>1.023248160827475</v>
       </c>
       <c r="K20">
-        <v>1.042457939248397</v>
+        <v>1.030354102830384</v>
       </c>
       <c r="L20">
-        <v>1.034550855191512</v>
+        <v>1.017588123731957</v>
       </c>
       <c r="M20">
-        <v>1.049209054150242</v>
+        <v>1.02889419628815</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030587558418288</v>
+        <v>0.9906600427464678</v>
       </c>
       <c r="D21">
-        <v>1.038362037409662</v>
+        <v>1.012998641962763</v>
       </c>
       <c r="E21">
-        <v>1.030362894261655</v>
+        <v>0.9998072915952553</v>
       </c>
       <c r="F21">
-        <v>1.044933935194752</v>
+        <v>1.010663936552057</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036772772200735</v>
+        <v>1.040230137460314</v>
       </c>
       <c r="J21">
-        <v>1.037212564275207</v>
+        <v>1.020553521432563</v>
       </c>
       <c r="K21">
-        <v>1.041933407092136</v>
+        <v>1.027737865949119</v>
       </c>
       <c r="L21">
-        <v>1.033964138561787</v>
+        <v>1.014792315816577</v>
       </c>
       <c r="M21">
-        <v>1.048481139004956</v>
+        <v>1.025446055166114</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029993732594531</v>
+        <v>0.9875251698218195</v>
       </c>
       <c r="D22">
-        <v>1.037901779793103</v>
+        <v>1.010694639988559</v>
       </c>
       <c r="E22">
-        <v>1.029862602705248</v>
+        <v>0.9973756507560242</v>
       </c>
       <c r="F22">
-        <v>1.044346830408847</v>
+        <v>1.007816898856919</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036637314942869</v>
+        <v>1.039331975251679</v>
       </c>
       <c r="J22">
-        <v>1.036868686698398</v>
+        <v>1.018822831162248</v>
       </c>
       <c r="K22">
-        <v>1.041603563640607</v>
+        <v>1.026057169984093</v>
       </c>
       <c r="L22">
-        <v>1.033595598234843</v>
+        <v>1.012999276405557</v>
       </c>
       <c r="M22">
-        <v>1.048023976499875</v>
+        <v>1.023235075842826</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030308457041041</v>
+        <v>0.9891932583878161</v>
       </c>
       <c r="D23">
-        <v>1.038145704486191</v>
+        <v>1.011920080957314</v>
       </c>
       <c r="E23">
-        <v>1.030127713572746</v>
+        <v>0.9986687718331547</v>
       </c>
       <c r="F23">
-        <v>1.044657950683713</v>
+        <v>1.009331076666946</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036709207437779</v>
+        <v>1.039810592506683</v>
       </c>
       <c r="J23">
-        <v>1.037050976637711</v>
+        <v>1.019743845556143</v>
       </c>
       <c r="K23">
-        <v>1.041778424115215</v>
+        <v>1.026951610188727</v>
       </c>
       <c r="L23">
-        <v>1.033790934620412</v>
+        <v>1.013953222670089</v>
       </c>
       <c r="M23">
-        <v>1.048266278406111</v>
+        <v>1.024411338884698</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031549126094731</v>
+        <v>0.9956252384345132</v>
       </c>
       <c r="D24">
-        <v>1.039107479089089</v>
+        <v>1.016656587987859</v>
       </c>
       <c r="E24">
-        <v>1.031173706998134</v>
+        <v>1.003671471787424</v>
       </c>
       <c r="F24">
-        <v>1.045885342632375</v>
+        <v>1.015185714641492</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036990373661695</v>
+        <v>1.041640596694216</v>
       </c>
       <c r="J24">
-        <v>1.037768762178036</v>
+        <v>1.023292737483219</v>
       </c>
       <c r="K24">
-        <v>1.042466732164879</v>
+        <v>1.030397375842795</v>
       </c>
       <c r="L24">
-        <v>1.03456069743014</v>
+        <v>1.017634417587519</v>
       </c>
       <c r="M24">
-        <v>1.049221266207961</v>
+        <v>1.028951298929566</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032992163812299</v>
+        <v>1.002827951295608</v>
       </c>
       <c r="D25">
-        <v>1.040226532950653</v>
+        <v>1.021981659095303</v>
       </c>
       <c r="E25">
-        <v>1.032392169956018</v>
+        <v>1.009305545536505</v>
       </c>
       <c r="F25">
-        <v>1.047314849980037</v>
+        <v>1.021773086535698</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037312755847516</v>
+        <v>1.043656804716633</v>
       </c>
       <c r="J25">
-        <v>1.03860192670994</v>
+        <v>1.02726051696976</v>
       </c>
       <c r="K25">
-        <v>1.043265215573219</v>
+        <v>1.034248059190819</v>
       </c>
       <c r="L25">
-        <v>1.035455447736154</v>
+        <v>1.021761102186626</v>
       </c>
       <c r="M25">
-        <v>1.050331625711857</v>
+        <v>1.034042550787335</v>
       </c>
     </row>
   </sheetData>
